--- a/01_doc/biz_spec/餐厅订餐系统_需求跟踪矩阵.xlsx
+++ b/01_doc/biz_spec/餐厅订餐系统_需求跟踪矩阵.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="209">
   <si>
     <t>Req.1</t>
   </si>
@@ -823,9 +823,6 @@
     <t>角色权限分配</t>
   </si>
   <si>
-    <t>UC_006_用户管理，UC_007_用户管理-创建用户</t>
-  </si>
-  <si>
     <t>TC9_检查创建角色功能
 TC10_检查更新角色功能</t>
   </si>
@@ -836,12 +833,14 @@
     <t>创建/编辑角色信息</t>
   </si>
   <si>
-    <t>TC11_检查创建用户功能
-TC12_检查更新用户功能</t>
-  </si>
-  <si>
-    <t>TC12_检查更新用户功能
-TC13_检查组合角色</t>
+    <t>TC11_检查创建用户功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC12_检查更新用户功能
+</t>
+  </si>
+  <si>
+    <t>TC13_检查组合角色</t>
   </si>
 </sst>
 </file>
@@ -1839,6 +1838,33 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1861,27 +1887,42 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1905,48 +1946,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2265,11 +2264,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickTop="1">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
       <c r="E1" s="6"/>
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
@@ -2283,11 +2282,11 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="37"/>
@@ -2303,60 +2302,60 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2364,8 +2363,8 @@
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="20"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
     </row>
@@ -2388,10 +2387,10 @@
       <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="104"/>
+      <c r="G12" s="99"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="22" t="s">
@@ -2404,34 +2403,34 @@
         <v>101</v>
       </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="101"/>
+      <c r="G13" s="96"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="22"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
     </row>
     <row r="15" spans="2:7" s="27" customFormat="1">
       <c r="B15" s="22"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="22"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
     </row>
     <row r="18" spans="2:7" ht="18.75">
       <c r="B18" s="4" t="s">
@@ -2485,14 +2484,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B5:C5"/>
@@ -2503,6 +2494,14 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.83" right="0.25" top="0.5" bottom="1" header="0.5" footer="0.4"/>
@@ -2521,7 +2520,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H23"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2586,7 +2585,7 @@
         <v>171</v>
       </c>
       <c r="I3" s="60"/>
-      <c r="J3" s="106"/>
+      <c r="J3" s="109"/>
     </row>
     <row r="4" spans="1:10" ht="28.5">
       <c r="A4" s="60"/>
@@ -2608,7 +2607,7 @@
       </c>
       <c r="H4" s="75"/>
       <c r="I4" s="60"/>
-      <c r="J4" s="106"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="60"/>
@@ -2630,7 +2629,7 @@
       </c>
       <c r="H5" s="75"/>
       <c r="I5" s="60"/>
-      <c r="J5" s="106"/>
+      <c r="J5" s="109"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="60"/>
@@ -2653,7 +2652,7 @@
       </c>
       <c r="H6" s="75"/>
       <c r="I6" s="60"/>
-      <c r="J6" s="106"/>
+      <c r="J6" s="109"/>
     </row>
     <row r="7" spans="1:10" ht="28.5">
       <c r="A7" s="60"/>
@@ -3161,15 +3160,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="119" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="93" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="120" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="94" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
@@ -3178,7 +3179,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="92" t="s">
         <v>176</v>
       </c>
       <c r="B1" s="62" t="s">
@@ -3201,7 +3202,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="116" t="s">
         <v>178</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -3220,7 +3221,7 @@
       <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="125"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="64" t="s">
         <v>181</v>
       </c>
@@ -3237,7 +3238,7 @@
       <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="125"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="72" t="s">
         <v>180</v>
       </c>
@@ -3254,7 +3255,7 @@
       <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="125"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="72" t="s">
         <v>182</v>
       </c>
@@ -3271,7 +3272,7 @@
       <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="126"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="72" t="s">
         <v>183</v>
       </c>
@@ -3288,7 +3289,7 @@
       <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="110" t="s">
         <v>186</v>
       </c>
       <c r="B7" s="79" t="s">
@@ -3301,7 +3302,7 @@
       <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="117"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="79" t="s">
         <v>194</v>
       </c>
@@ -3312,7 +3313,7 @@
       <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="118"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="79" t="s">
         <v>195</v>
       </c>
@@ -3323,7 +3324,7 @@
       <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="110" t="s">
         <v>187</v>
       </c>
       <c r="B10" s="79" t="s">
@@ -3336,7 +3337,7 @@
       <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="117"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="79" t="s">
         <v>197</v>
       </c>
@@ -3347,7 +3348,7 @@
       <c r="G11" s="81"/>
     </row>
     <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="117"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="79" t="s">
         <v>198</v>
       </c>
@@ -3358,7 +3359,7 @@
       <c r="G12" s="81"/>
     </row>
     <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="117"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="79" t="s">
         <v>199</v>
       </c>
@@ -3369,7 +3370,7 @@
       <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="118"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="79" t="s">
         <v>200</v>
       </c>
@@ -3380,7 +3381,7 @@
       <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="110" t="s">
         <v>189</v>
       </c>
       <c r="B15" s="79" t="s">
@@ -3393,7 +3394,7 @@
       <c r="G15" s="81"/>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="117"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="79" t="s">
         <v>191</v>
       </c>
@@ -3404,7 +3405,7 @@
       <c r="G16" s="81"/>
     </row>
     <row r="17" spans="1:7" ht="14.25">
-      <c r="A17" s="118"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="79" t="s">
         <v>192</v>
       </c>
@@ -3415,7 +3416,7 @@
       <c r="G17" s="81"/>
     </row>
     <row r="18" spans="1:7" ht="28.5">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="113" t="s">
         <v>188</v>
       </c>
       <c r="B18" s="72" t="s">
@@ -3433,130 +3434,146 @@
       </c>
       <c r="G18" s="75"/>
     </row>
-    <row r="19" spans="1:7" ht="28.5">
-      <c r="A19" s="122"/>
-      <c r="B19" s="72" t="s">
+    <row r="19" spans="1:7" ht="14.25">
+      <c r="A19" s="114"/>
+      <c r="B19" s="119" t="s">
         <v>185</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="73"/>
       <c r="F19" s="76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G19" s="75"/>
     </row>
-    <row r="20" spans="1:7" ht="28.5">
-      <c r="A20" s="122"/>
-      <c r="B20" s="72" t="s">
-        <v>201</v>
-      </c>
+    <row r="20" spans="1:7" ht="14.25">
+      <c r="A20" s="114"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="73" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E20" s="73"/>
       <c r="F20" s="76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:7" ht="28.5">
-      <c r="A21" s="122"/>
-      <c r="B21" s="127" t="s">
-        <v>206</v>
+      <c r="A21" s="114"/>
+      <c r="B21" s="72" t="s">
+        <v>201</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" s="73" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E21" s="73"/>
       <c r="F21" s="76" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G21" s="75"/>
     </row>
-    <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="122"/>
-      <c r="B22" s="128"/>
+    <row r="22" spans="1:7" ht="28.5">
+      <c r="A22" s="114"/>
+      <c r="B22" s="119" t="s">
+        <v>205</v>
+      </c>
       <c r="C22" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E22" s="73"/>
       <c r="F22" s="76" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="G22" s="75"/>
     </row>
     <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="72" t="s">
-        <v>202</v>
-      </c>
+      <c r="A23" s="114"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25">
+      <c r="A24" s="114"/>
+      <c r="B24" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="73"/>
+      <c r="F24" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="75"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="122"/>
-      <c r="B24" s="127" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="64" t="s">
+      <c r="G24" s="75"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25">
+      <c r="A25" s="114"/>
+      <c r="B25" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="64" t="s">
         <v>123</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="75"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="123"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="64" t="s">
-        <v>124</v>
       </c>
       <c r="D25" s="73" t="s">
         <v>163</v>
       </c>
       <c r="E25" s="73"/>
       <c r="F25" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="75"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25">
+      <c r="A26" s="115"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="75"/>
+      <c r="G26" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A18:A26"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3601,25 +3618,25 @@
     </row>
     <row r="3" spans="2:16" ht="18" customHeight="1" thickBot="1">
       <c r="B3" s="40"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
       <c r="N3" s="39"/>
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
     </row>
     <row r="4" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="125" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="41"/>
@@ -3654,11 +3671,11 @@
         <v>19</v>
       </c>
       <c r="N4" s="39"/>
-      <c r="O4" s="110"/>
+      <c r="O4" s="124"/>
       <c r="P4" s="39"/>
     </row>
     <row r="5" spans="2:16" ht="15.75">
-      <c r="B5" s="112"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="44" t="s">
         <v>4</v>
       </c>
@@ -3689,11 +3706,11 @@
         <v>20</v>
       </c>
       <c r="N5" s="39"/>
-      <c r="O5" s="110"/>
+      <c r="O5" s="124"/>
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="2:16" ht="15.75">
-      <c r="B6" s="112"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="44" t="s">
         <v>5</v>
       </c>
@@ -3712,11 +3729,11 @@
         <v>20</v>
       </c>
       <c r="N6" s="39"/>
-      <c r="O6" s="110"/>
+      <c r="O6" s="124"/>
       <c r="P6" s="39"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="112"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="44" t="s">
         <v>6</v>
       </c>
@@ -3739,11 +3756,11 @@
         <v>20</v>
       </c>
       <c r="N7" s="39"/>
-      <c r="O7" s="110"/>
+      <c r="O7" s="124"/>
       <c r="P7" s="39"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="112"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="44" t="s">
         <v>7</v>
       </c>
@@ -3766,7 +3783,7 @@
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="112"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="44" t="s">
         <v>8</v>
       </c>
@@ -3791,7 +3808,7 @@
       <c r="P9" s="39"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="112"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="44" t="s">
         <v>9</v>
       </c>
@@ -3814,7 +3831,7 @@
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="112"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="44" t="s">
         <v>10</v>
       </c>
@@ -3835,7 +3852,7 @@
       <c r="P11" s="39"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="112"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="44" t="s">
         <v>11</v>
       </c>
@@ -3862,7 +3879,7 @@
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="112"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="44" t="s">
         <v>12</v>
       </c>
@@ -3887,7 +3904,7 @@
       <c r="P13" s="39"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B14" s="113"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="50" t="s">
         <v>13</v>
       </c>
@@ -3929,37 +3946,37 @@
       <c r="P15" s="39"/>
     </row>
     <row r="16" spans="2:16" ht="30.75" customHeight="1">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
       <c r="N16" s="39"/>
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
@@ -4142,24 +4159,24 @@
     <row r="2" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:15" ht="18" customHeight="1" thickBot="1">
       <c r="B3" s="40"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
       <c r="N3" s="39"/>
       <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" ht="26.25" customHeight="1">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="125" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="41"/>
@@ -4194,10 +4211,10 @@
         <v>19</v>
       </c>
       <c r="N4" s="39"/>
-      <c r="O4" s="110"/>
+      <c r="O4" s="124"/>
     </row>
     <row r="5" spans="2:15" ht="15.75">
-      <c r="B5" s="112"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="44" t="s">
         <v>49</v>
       </c>
@@ -4226,10 +4243,10 @@
         <v>20</v>
       </c>
       <c r="N5" s="39"/>
-      <c r="O5" s="110"/>
+      <c r="O5" s="124"/>
     </row>
     <row r="6" spans="2:15" ht="15.75">
-      <c r="B6" s="112"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="44" t="s">
         <v>1</v>
       </c>
@@ -4246,10 +4263,10 @@
         <v>20</v>
       </c>
       <c r="N6" s="39"/>
-      <c r="O6" s="110"/>
+      <c r="O6" s="124"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="112"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="44" t="s">
         <v>2</v>
       </c>
@@ -4270,10 +4287,10 @@
         <v>20</v>
       </c>
       <c r="N7" s="39"/>
-      <c r="O7" s="110"/>
+      <c r="O7" s="124"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="112"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="44" t="s">
         <v>3</v>
       </c>
@@ -4293,7 +4310,7 @@
       <c r="O8" s="49"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="112"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
@@ -4315,7 +4332,7 @@
       <c r="O9" s="39"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="112"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="44" t="s">
         <v>15</v>
       </c>
@@ -4337,7 +4354,7 @@
       <c r="O10" s="39"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="112"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="44" t="s">
         <v>16</v>
       </c>
@@ -4355,7 +4372,7 @@
       <c r="O11" s="39"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="112"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="44" t="s">
         <v>17</v>
       </c>
@@ -4373,7 +4390,7 @@
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="112"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="44" t="s">
         <v>18</v>
       </c>
@@ -4391,7 +4408,7 @@
       <c r="O13" s="39"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B14" s="113"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="44" t="s">
         <v>19</v>
       </c>
@@ -4425,36 +4442,36 @@
       <c r="O15" s="39"/>
     </row>
     <row r="16" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
       <c r="N16" s="39"/>
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
     </row>
@@ -5014,21 +5031,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061CE645E30433848A4C0854A8DDC586B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f768968ed2186854e4a7e31ed889cea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -5077,17 +5079,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E86CB1-7165-4C41-A2A7-88558B08E6E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93B8B39A-7C1B-4922-B2C8-52CA64CC8BE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5101,16 +5118,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93B8B39A-7C1B-4922-B2C8-52CA64CC8BE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E86CB1-7165-4C41-A2A7-88558B08E6E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_doc/biz_spec/餐厅订餐系统_需求跟踪矩阵.xlsx
+++ b/01_doc/biz_spec/餐厅订餐系统_需求跟踪矩阵.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="199">
   <si>
     <t>Req.1</t>
   </si>
@@ -637,48 +637,6 @@
     <t>测试用例</t>
   </si>
   <si>
-    <t>TC1_检查菜单分类显示页面</t>
-  </si>
-  <si>
-    <t>TC2_检查电子菜单</t>
-  </si>
-  <si>
-    <t>TC3_会员查看历史订单</t>
-  </si>
-  <si>
-    <t>TC4_检查用户点菜功能</t>
-  </si>
-  <si>
-    <t>TC5_检查服务员确认订单功能</t>
-  </si>
-  <si>
-    <t>TC7_检查创建权限功能</t>
-  </si>
-  <si>
-    <t>TC8_检查更新权限功能</t>
-  </si>
-  <si>
-    <t>TC9_检查创建角色功能</t>
-  </si>
-  <si>
-    <t>TC10_检查更新角色功能</t>
-  </si>
-  <si>
-    <t>TC011_检查创建用户功能</t>
-  </si>
-  <si>
-    <t>TC012_检查更新用户功能</t>
-  </si>
-  <si>
-    <t>TC013_检查组合角色</t>
-  </si>
-  <si>
-    <t>TC1_检查菜单分类显示页面,TC2_检查电子菜单</t>
-  </si>
-  <si>
-    <t>TC6_检查eOrder订餐管理系统后台登录功能</t>
-  </si>
-  <si>
     <t>需求规格说明书</t>
   </si>
   <si>
@@ -823,24 +781,34 @@
     <t>角色权限分配</t>
   </si>
   <si>
-    <t>TC9_检查创建角色功能
-TC10_检查更新角色功能</t>
-  </si>
-  <si>
     <t>创建/编辑权限</t>
   </si>
   <si>
     <t>创建/编辑角色信息</t>
   </si>
   <si>
-    <t>TC11_检查创建用户功能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC12_检查更新用户功能
-</t>
-  </si>
-  <si>
-    <t>TC13_检查组合角色</t>
+    <t>2.1 浏览菜单</t>
+  </si>
+  <si>
+    <t>2.2 浏览会员历史订单</t>
+  </si>
+  <si>
+    <t>2.3 点菜下单</t>
+  </si>
+  <si>
+    <t>2.4 确认订单</t>
+  </si>
+  <si>
+    <t>2.5 登录</t>
+  </si>
+  <si>
+    <t>2.6 权限管理</t>
+  </si>
+  <si>
+    <t>2.7 角色管理</t>
+  </si>
+  <si>
+    <t>2.8 用户管理</t>
   </si>
 </sst>
 </file>
@@ -1847,6 +1815,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1865,31 +1855,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1916,12 +1890,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2264,11 +2232,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickTop="1">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
       <c r="E1" s="6"/>
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
@@ -2282,11 +2250,11 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="37"/>
@@ -2302,60 +2270,60 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2363,8 +2331,8 @@
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="20"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
     </row>
@@ -2387,10 +2355,10 @@
       <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="99"/>
+      <c r="G12" s="107"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="22" t="s">
@@ -2403,34 +2371,34 @@
         <v>101</v>
       </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="96"/>
+      <c r="G13" s="104"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="22"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
     </row>
     <row r="15" spans="2:7" s="27" customFormat="1">
       <c r="B15" s="22"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="22"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
     </row>
     <row r="18" spans="2:7" ht="18.75">
       <c r="B18" s="4" t="s">
@@ -2484,6 +2452,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B5:C5"/>
@@ -2494,14 +2470,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.83" right="0.25" top="0.5" bottom="1" header="0.5" footer="0.4"/>
@@ -2520,7 +2488,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2570,24 +2538,24 @@
         <v>78</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F3" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="63" t="s">
         <v>157</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>171</v>
       </c>
       <c r="I3" s="60"/>
       <c r="J3" s="109"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" spans="1:10">
       <c r="A4" s="60"/>
       <c r="B4" s="59" t="s">
         <v>105</v>
@@ -2599,11 +2567,11 @@
         <v>125</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F4" s="73"/>
       <c r="G4" s="74" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="H4" s="75"/>
       <c r="I4" s="60"/>
@@ -2621,11 +2589,11 @@
         <v>114</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F5" s="73"/>
       <c r="G5" s="76" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="H5" s="75"/>
       <c r="I5" s="60"/>
@@ -2644,17 +2612,17 @@
         <v>126</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F6" s="73"/>
       <c r="G6" s="76" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="H6" s="75"/>
       <c r="I6" s="60"/>
       <c r="J6" s="109"/>
     </row>
-    <row r="7" spans="1:10" ht="28.5">
+    <row r="7" spans="1:10">
       <c r="A7" s="60"/>
       <c r="B7" s="77" t="str">
         <f>B6</f>
@@ -2667,11 +2635,11 @@
         <v>113</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F7" s="73"/>
       <c r="G7" s="76" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="H7" s="75"/>
       <c r="I7" s="60"/>
@@ -2759,7 +2727,7 @@
       <c r="I12" s="60"/>
       <c r="J12" s="60"/>
     </row>
-    <row r="13" spans="1:10" ht="28.5">
+    <row r="13" spans="1:10">
       <c r="A13" s="60"/>
       <c r="B13" s="77" t="s">
         <v>110</v>
@@ -2771,11 +2739,11 @@
         <v>115</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="64" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="H13" s="82"/>
       <c r="I13" s="60"/>
@@ -2794,11 +2762,11 @@
         <v>116</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="64" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="H14" s="82"/>
       <c r="I14" s="60"/>
@@ -2818,11 +2786,11 @@
         <v>117</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="64" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="H15" s="82"/>
       <c r="I15" s="60"/>
@@ -2842,11 +2810,11 @@
         <v>118</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="64" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="H16" s="82"/>
       <c r="I16" s="60"/>
@@ -2864,11 +2832,11 @@
         <v>119</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="64" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="H17" s="82"/>
       <c r="I17" s="60"/>
@@ -2888,11 +2856,11 @@
         <v>123</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="64" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="H18" s="82"/>
       <c r="I18" s="60"/>
@@ -2912,11 +2880,11 @@
         <v>124</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="64" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="H19" s="82"/>
       <c r="I19" s="60"/>
@@ -2935,11 +2903,11 @@
         <v>120</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="64" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="H20" s="82"/>
       <c r="I20" s="60"/>
@@ -2959,11 +2927,11 @@
         <v>121</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F21" s="84"/>
       <c r="G21" s="85" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="H21" s="86"/>
       <c r="I21" s="60"/>
@@ -2983,11 +2951,11 @@
         <v>122</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F22" s="84"/>
       <c r="G22" s="76" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="H22" s="86"/>
       <c r="I22" s="60"/>
@@ -3155,6 +3123,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>LookUp!$K$2:$K$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3163,7 +3143,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3180,120 +3160,120 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="92" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E1" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.5">
-      <c r="A2" s="116" t="s">
-        <v>178</v>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="118" t="s">
+        <v>164</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C2" s="64" t="s">
         <v>125</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E2" s="73"/>
       <c r="F2" s="74" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="117"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="64" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E3" s="73"/>
       <c r="F3" s="76" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="117"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="72" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="76" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="117"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="72" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E5" s="73"/>
       <c r="F5" s="76" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="118"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="72" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E6" s="73"/>
       <c r="F6" s="76" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="110" t="s">
-        <v>186</v>
+      <c r="A7" s="112" t="s">
+        <v>172</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="79"/>
@@ -3302,9 +3282,9 @@
       <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="111"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="79" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="79"/>
@@ -3313,9 +3293,9 @@
       <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="112"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="79" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="79"/>
@@ -3324,11 +3304,11 @@
       <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="110" t="s">
-        <v>187</v>
+      <c r="A10" s="112" t="s">
+        <v>173</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="79"/>
@@ -3337,9 +3317,9 @@
       <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="111"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="79" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="79"/>
@@ -3348,9 +3328,9 @@
       <c r="G11" s="81"/>
     </row>
     <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="111"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="79" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="79"/>
@@ -3359,9 +3339,9 @@
       <c r="G12" s="81"/>
     </row>
     <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="111"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="79" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="79"/>
@@ -3370,9 +3350,9 @@
       <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="79" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="79"/>
@@ -3381,11 +3361,11 @@
       <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="110" t="s">
-        <v>189</v>
+      <c r="A15" s="112" t="s">
+        <v>175</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="79"/>
@@ -3394,9 +3374,9 @@
       <c r="G15" s="81"/>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="111"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="79" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="79"/>
@@ -3405,9 +3385,9 @@
       <c r="G16" s="81"/>
     </row>
     <row r="17" spans="1:7" ht="14.25">
-      <c r="A17" s="112"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="79" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="79"/>
@@ -3415,157 +3395,158 @@
       <c r="F17" s="80"/>
       <c r="G17" s="81"/>
     </row>
-    <row r="18" spans="1:7" ht="28.5">
-      <c r="A18" s="113" t="s">
-        <v>188</v>
+    <row r="18" spans="1:7" ht="14.25">
+      <c r="A18" s="115" t="s">
+        <v>174</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C18" s="64" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E18" s="73"/>
       <c r="F18" s="76" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="G18" s="75"/>
     </row>
     <row r="19" spans="1:7" ht="14.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="119" t="s">
-        <v>185</v>
+      <c r="A19" s="116"/>
+      <c r="B19" s="110" t="s">
+        <v>171</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>116</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E19" s="73"/>
       <c r="F19" s="76" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G19" s="75"/>
     </row>
     <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="114"/>
-      <c r="B20" s="120"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="64" t="s">
         <v>117</v>
       </c>
       <c r="D20" s="73" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E20" s="73"/>
       <c r="F20" s="76" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="75"/>
     </row>
-    <row r="21" spans="1:7" ht="28.5">
-      <c r="A21" s="114"/>
+    <row r="21" spans="1:7" ht="14.25">
+      <c r="A21" s="116"/>
       <c r="B21" s="72" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="73" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E21" s="73"/>
       <c r="F21" s="76" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G21" s="75"/>
     </row>
-    <row r="22" spans="1:7" ht="28.5">
-      <c r="A22" s="114"/>
-      <c r="B22" s="119" t="s">
-        <v>205</v>
+    <row r="22" spans="1:7" ht="14.25">
+      <c r="A22" s="116"/>
+      <c r="B22" s="110" t="s">
+        <v>190</v>
       </c>
       <c r="C22" s="64" t="s">
         <v>120</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E22" s="73"/>
       <c r="F22" s="76" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G22" s="75"/>
     </row>
     <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="114"/>
-      <c r="B23" s="120"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="64" t="s">
         <v>121</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="76" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="114"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="72" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C24" s="64" t="s">
         <v>122</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="76" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="119" t="s">
-        <v>204</v>
+      <c r="A25" s="116"/>
+      <c r="B25" s="110" t="s">
+        <v>189</v>
       </c>
       <c r="C25" s="64" t="s">
         <v>123</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E25" s="73"/>
       <c r="F25" s="64" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="115"/>
-      <c r="B26" s="120"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="64" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="73" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="64" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="G26" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B19:B20"/>
@@ -3573,10 +3554,21 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>LookUp!$K$2:$K$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4580,7 +4572,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K11"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4612,7 +4604,7 @@
         <v>140</v>
       </c>
       <c r="L1" s="68" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25">
@@ -4638,10 +4630,10 @@
         <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="L2" s="68" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25">
@@ -4667,10 +4659,10 @@
         <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="L3" s="68" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25">
@@ -4696,10 +4688,10 @@
         <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="L4" s="68" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25">
@@ -4725,10 +4717,10 @@
         <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="L5" s="68" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25">
@@ -4754,10 +4746,10 @@
         <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="L6" s="68" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25">
@@ -4779,10 +4771,10 @@
         <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="L7" s="68" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.25">
@@ -4804,10 +4796,10 @@
         <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="L8" s="68" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.25">
@@ -4829,10 +4821,10 @@
         <v>88</v>
       </c>
       <c r="K9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L9" s="68" t="s">
         <v>147</v>
-      </c>
-      <c r="L9" s="68" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25">
@@ -4849,11 +4841,8 @@
       <c r="I10" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="K10" t="s">
-        <v>148</v>
-      </c>
       <c r="L10" s="68" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.25">
@@ -4870,11 +4859,8 @@
       <c r="I11" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="K11" t="s">
-        <v>149</v>
-      </c>
       <c r="L11" s="68" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25">
@@ -4891,11 +4877,8 @@
       <c r="I12" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="K12" t="s">
-        <v>150</v>
-      </c>
       <c r="L12" s="68" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.25">
@@ -4912,9 +4895,6 @@
       <c r="I13" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="K13" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="14" spans="1:12" ht="14.25">
       <c r="A14" s="68"/>
@@ -4929,9 +4909,6 @@
       <c r="H14" s="68"/>
       <c r="I14" s="68" t="s">
         <v>93</v>
-      </c>
-      <c r="K14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25">
@@ -5031,6 +5008,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061CE645E30433848A4C0854A8DDC586B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f768968ed2186854e4a7e31ed889cea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -5079,32 +5071,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93B8B39A-7C1B-4922-B2C8-52CA64CC8BE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E86CB1-7165-4C41-A2A7-88558B08E6E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5118,16 +5095,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E86CB1-7165-4C41-A2A7-88558B08E6E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93B8B39A-7C1B-4922-B2C8-52CA64CC8BE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_doc/biz_spec/餐厅订餐系统_需求跟踪矩阵.xlsx
+++ b/01_doc/biz_spec/餐厅订餐系统_需求跟踪矩阵.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niesu\Documents\GitHub\cuoxiazi\cuoxiazi\01_doc\biz_spec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aaron_Folder\Git_Repo\cuoxiazi\01_doc\biz_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="204">
   <si>
     <t>Req.1</t>
   </si>
@@ -809,6 +809,21 @@
   </si>
   <si>
     <t>2.8 用户管理</t>
+  </si>
+  <si>
+    <t>4.2,4.3</t>
+  </si>
+  <si>
+    <t>5.2,5.3</t>
+  </si>
+  <si>
+    <t>5.4, 5.6</t>
+  </si>
+  <si>
+    <t>5.2, 5.3</t>
+  </si>
+  <si>
+    <t>5.4,5.6</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1815,6 +1830,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1837,27 +1870,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1882,15 +1906,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1914,6 +1929,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2232,11 +2253,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickTop="1">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
       <c r="E1" s="6"/>
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
@@ -2250,11 +2271,11 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="37"/>
@@ -2270,60 +2291,60 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2331,8 +2352,8 @@
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="20"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
     </row>
@@ -2355,10 +2376,10 @@
       <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="106" t="s">
+      <c r="F12" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="107"/>
+      <c r="G12" s="99"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="22" t="s">
@@ -2371,34 +2392,34 @@
         <v>101</v>
       </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="104"/>
+      <c r="G13" s="96"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="22"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
     </row>
     <row r="15" spans="2:7" s="27" customFormat="1">
       <c r="B15" s="22"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="22"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
     </row>
     <row r="18" spans="2:7" ht="18.75">
       <c r="B18" s="4" t="s">
@@ -2452,14 +2473,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B5:C5"/>
@@ -2470,6 +2483,14 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.83" right="0.25" top="0.5" bottom="1" header="0.5" footer="0.4"/>
@@ -2488,7 +2509,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2569,7 +2590,9 @@
       <c r="E4" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="73"/>
+      <c r="F4" s="129">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G4" s="74" t="s">
         <v>191</v>
       </c>
@@ -2591,7 +2614,9 @@
       <c r="E5" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="129" t="s">
+        <v>199</v>
+      </c>
       <c r="G5" s="76" t="s">
         <v>193</v>
       </c>
@@ -2614,7 +2639,9 @@
       <c r="E6" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="129">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="G6" s="76" t="s">
         <v>192</v>
       </c>
@@ -2637,7 +2664,9 @@
       <c r="E7" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="129">
+        <v>4.2</v>
+      </c>
       <c r="G7" s="76" t="s">
         <v>194</v>
       </c>
@@ -2655,7 +2684,7 @@
       </c>
       <c r="D8" s="79"/>
       <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="80"/>
       <c r="H8" s="81"/>
       <c r="I8" s="60"/>
@@ -2672,7 +2701,7 @@
       </c>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="80"/>
       <c r="H9" s="81"/>
       <c r="I9" s="60"/>
@@ -2688,7 +2717,7 @@
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="80"/>
       <c r="H10" s="81"/>
       <c r="I10" s="60"/>
@@ -2705,7 +2734,7 @@
       </c>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="80"/>
       <c r="H11" s="81"/>
       <c r="I11" s="60"/>
@@ -2721,7 +2750,7 @@
       </c>
       <c r="D12" s="79"/>
       <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="80"/>
       <c r="H12" s="81"/>
       <c r="I12" s="60"/>
@@ -2741,7 +2770,9 @@
       <c r="E13" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="129">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="G13" s="64" t="s">
         <v>195</v>
       </c>
@@ -2764,7 +2795,9 @@
       <c r="E14" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="129" t="s">
+        <v>200</v>
+      </c>
       <c r="G14" s="64" t="s">
         <v>198</v>
       </c>
@@ -2788,7 +2821,9 @@
       <c r="E15" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="129">
+        <v>5.2</v>
+      </c>
       <c r="G15" s="64" t="s">
         <v>198</v>
       </c>
@@ -2812,7 +2847,9 @@
       <c r="E16" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="129">
+        <v>5.3</v>
+      </c>
       <c r="G16" s="64" t="s">
         <v>198</v>
       </c>
@@ -2834,7 +2871,9 @@
       <c r="E17" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="129">
+        <v>5.5</v>
+      </c>
       <c r="G17" s="64" t="s">
         <v>196</v>
       </c>
@@ -2858,7 +2897,9 @@
       <c r="E18" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="129">
+        <v>5.5</v>
+      </c>
       <c r="G18" s="64" t="s">
         <v>196</v>
       </c>
@@ -2882,7 +2923,9 @@
       <c r="E19" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="129">
+        <v>5.5</v>
+      </c>
       <c r="G19" s="64" t="s">
         <v>196</v>
       </c>
@@ -2905,7 +2948,9 @@
       <c r="E20" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="129" t="s">
+        <v>201</v>
+      </c>
       <c r="G20" s="64" t="s">
         <v>197</v>
       </c>
@@ -2929,7 +2974,9 @@
       <c r="E21" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="84"/>
+      <c r="F21" s="129">
+        <v>5.4</v>
+      </c>
       <c r="G21" s="85" t="s">
         <v>197</v>
       </c>
@@ -2953,7 +3000,9 @@
       <c r="E22" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="84"/>
+      <c r="F22" s="129">
+        <v>5.6</v>
+      </c>
       <c r="G22" s="76" t="s">
         <v>197</v>
       </c>
@@ -3143,7 +3192,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3182,7 +3231,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="110" t="s">
         <v>164</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -3194,14 +3243,16 @@
       <c r="D2" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="73"/>
+      <c r="E2" s="129">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="F2" s="74" t="s">
         <v>191</v>
       </c>
       <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="119"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="64" t="s">
         <v>167</v>
       </c>
@@ -3211,14 +3262,16 @@
       <c r="D3" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="73"/>
+      <c r="E3" s="129" t="s">
+        <v>199</v>
+      </c>
       <c r="F3" s="76" t="s">
         <v>193</v>
       </c>
       <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="119"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="72" t="s">
         <v>166</v>
       </c>
@@ -3228,14 +3281,16 @@
       <c r="D4" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="129">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="F4" s="76" t="s">
         <v>192</v>
       </c>
       <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="119"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="72" t="s">
         <v>168</v>
       </c>
@@ -3245,14 +3300,16 @@
       <c r="D5" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="129">
+        <v>4.2</v>
+      </c>
       <c r="F5" s="76" t="s">
         <v>194</v>
       </c>
       <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="120"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="72" t="s">
         <v>169</v>
       </c>
@@ -3262,14 +3319,16 @@
       <c r="D6" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="73"/>
+      <c r="E6" s="129">
+        <v>4.2</v>
+      </c>
       <c r="F6" s="76" t="s">
         <v>193</v>
       </c>
       <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="115" t="s">
         <v>172</v>
       </c>
       <c r="B7" s="79" t="s">
@@ -3277,34 +3336,34 @@
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="E7" s="130"/>
       <c r="F7" s="80"/>
       <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="113"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="79" t="s">
         <v>180</v>
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="80"/>
       <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="114"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="79" t="s">
         <v>181</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="80"/>
       <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="115" t="s">
         <v>173</v>
       </c>
       <c r="B10" s="79" t="s">
@@ -3312,56 +3371,56 @@
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
+      <c r="E10" s="130"/>
       <c r="F10" s="80"/>
       <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="113"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="79" t="s">
         <v>183</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
+      <c r="E11" s="130"/>
       <c r="F11" s="80"/>
       <c r="G11" s="81"/>
     </row>
     <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="113"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="79" t="s">
         <v>184</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="80"/>
       <c r="G12" s="81"/>
     </row>
     <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="113"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="79" t="s">
         <v>185</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="E13" s="130"/>
       <c r="F13" s="80"/>
       <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="114"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="79" t="s">
         <v>186</v>
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="80"/>
       <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="115" t="s">
         <v>175</v>
       </c>
       <c r="B15" s="79" t="s">
@@ -3369,34 +3428,34 @@
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="80"/>
       <c r="G15" s="81"/>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="113"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="79" t="s">
         <v>177</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
+      <c r="E16" s="130"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
     </row>
     <row r="17" spans="1:7" ht="14.25">
-      <c r="A17" s="114"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="79" t="s">
         <v>178</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="80"/>
       <c r="G17" s="81"/>
     </row>
     <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="118" t="s">
         <v>174</v>
       </c>
       <c r="B18" s="72" t="s">
@@ -3408,15 +3467,17 @@
       <c r="D18" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="73"/>
+      <c r="E18" s="129">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="F18" s="76" t="s">
         <v>195</v>
       </c>
       <c r="G18" s="75"/>
     </row>
     <row r="19" spans="1:7" ht="14.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="110" t="s">
+      <c r="A19" s="119"/>
+      <c r="B19" s="113" t="s">
         <v>171</v>
       </c>
       <c r="C19" s="64" t="s">
@@ -3425,29 +3486,33 @@
       <c r="D19" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="73"/>
+      <c r="E19" s="129" t="s">
+        <v>202</v>
+      </c>
       <c r="F19" s="76" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="75"/>
     </row>
     <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="111"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="64" t="s">
         <v>117</v>
       </c>
       <c r="D20" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="73"/>
+      <c r="E20" s="129">
+        <v>5.2</v>
+      </c>
       <c r="F20" s="76" t="s">
         <v>198</v>
       </c>
       <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="116"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="72" t="s">
         <v>187</v>
       </c>
@@ -3457,15 +3522,17 @@
       <c r="D21" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="73"/>
+      <c r="E21" s="129">
+        <v>5.3</v>
+      </c>
       <c r="F21" s="76" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="75"/>
     </row>
     <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="110" t="s">
+      <c r="A22" s="119"/>
+      <c r="B22" s="113" t="s">
         <v>190</v>
       </c>
       <c r="C22" s="64" t="s">
@@ -3474,29 +3541,33 @@
       <c r="D22" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="73"/>
+      <c r="E22" s="129" t="s">
+        <v>203</v>
+      </c>
       <c r="F22" s="76" t="s">
         <v>197</v>
       </c>
       <c r="G22" s="75"/>
     </row>
     <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="64" t="s">
         <v>121</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="73"/>
+      <c r="E23" s="129">
+        <v>5.4</v>
+      </c>
       <c r="F23" s="76" t="s">
         <v>197</v>
       </c>
       <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="116"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="72" t="s">
         <v>188</v>
       </c>
@@ -3506,15 +3577,17 @@
       <c r="D24" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="73"/>
+      <c r="E24" s="129">
+        <v>5.6</v>
+      </c>
       <c r="F24" s="76" t="s">
         <v>197</v>
       </c>
       <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="110" t="s">
+      <c r="A25" s="119"/>
+      <c r="B25" s="113" t="s">
         <v>189</v>
       </c>
       <c r="C25" s="64" t="s">
@@ -3523,22 +3596,26 @@
       <c r="D25" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="73"/>
+      <c r="E25" s="129">
+        <v>5.5</v>
+      </c>
       <c r="F25" s="64" t="s">
         <v>196</v>
       </c>
       <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="111"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="64" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="73"/>
+      <c r="E26" s="129">
+        <v>5.5</v>
+      </c>
       <c r="F26" s="64" t="s">
         <v>196</v>
       </c>
@@ -5008,21 +5085,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061CE645E30433848A4C0854A8DDC586B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f768968ed2186854e4a7e31ed889cea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -5071,17 +5133,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E86CB1-7165-4C41-A2A7-88558B08E6E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93B8B39A-7C1B-4922-B2C8-52CA64CC8BE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5095,16 +5172,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93B8B39A-7C1B-4922-B2C8-52CA64CC8BE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E86CB1-7165-4C41-A2A7-88558B08E6E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>